--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorca\Desktop\jorcallegar.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EBE118-EDDB-44A8-B64A-D4B44C144C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,61 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Kickoff</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Bachelor's Degree in Physics</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Bachelor's Degree in Computer Science</t>
+  </si>
+  <si>
+    <t>MSc in Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>MSc in Offensive Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSCP </t>
+  </si>
+  <si>
+    <t>Tensorflow Certification</t>
+  </si>
+  <si>
+    <t>Certification</t>
+  </si>
+  <si>
+    <t>CCNA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,13 +108,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +131,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1FBB8E9-A29B-4F1F-8CB3-4DB238CB9225}" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{1CFFF058-A818-4FC6-BAFD-3872A9500E3D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+    <sortCondition descending="1" ref="D1:D8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EA875AAE-C298-46DF-9B17-42A9C68F81F9}" name="Feature"/>
+    <tableColumn id="2" xr3:uid="{2153FC28-282F-4D65-9094-E30662097341}" name="Category"/>
+    <tableColumn id="3" xr3:uid="{2FC2D029-67A3-4E5A-AA71-1EE76A8B4C3D}" name="Kickoff" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3F2DAE2C-7B9A-4147-B377-DA80EA81460E}" name="Completed"/>
+    <tableColumn id="5" xr3:uid="{9FE4BE26-FA25-4222-BF85-6A631DD397C1}" name="Goal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +412,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>